--- a/biology/Médecine/Antimycosique/Antimycosique.xlsx
+++ b/biology/Médecine/Antimycosique/Antimycosique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antimycosique (ou antifongique) est un médicament utilisé pour traiter les mycoses.
 </t>
@@ -513,14 +525,53 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Polyènes
-Les polyènes sont actifs contre les levures et contre aspergillus, blastomyces, histoplasma.
+          <t>Polyènes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les polyènes sont actifs contre les levures et contre aspergillus, blastomyces, histoplasma.
 Ils ne sont pas résorbés par voie orale.
 Nystatine
 Amphotéricine B
-Natamycine
-Imidazolés et triazolés
-Action: inhibition de l'enzyme cytochrome P450 14α-demethylase.
+Natamycine</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antimycosique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antimycosique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'antimycosiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Imidazolés et triazolés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Action: inhibition de l'enzyme cytochrome P450 14α-demethylase.
 Imidazolés :
 Miconazole
 Ketoconazole
@@ -543,16 +594,118 @@
 Ravuconazole
 Voriconazole
 Thiazolés :
-Abafungine (en)
-Allylamines
-Terbinafine : le plus utilisé.
+Abafungine (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Antimycosique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antimycosique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'antimycosiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Allylamines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Terbinafine : le plus utilisé.
 Amorolfine
 Naftifine
-Butenafine
-Lipopeptide
-Mycosubtiline
-Autres
-Flucytosine : antimétabolite.
+Butenafine</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Antimycosique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antimycosique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'antimycosiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Lipopeptide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mycosubtiline</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Antimycosique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antimycosique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'antimycosiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Flucytosine : antimétabolite.
 Griséofulvine
 Caspofungine
 Micafungine
